--- a/biology/Zoologie/Batrachotomus/Batrachotomus.xlsx
+++ b/biology/Zoologie/Batrachotomus/Batrachotomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Batrachotomus kupferzellensis
 Batrachotomus est un genre éteint de la famille des Prestosuchidae. Ses fossiles datent du Trias moyen. Ils ont été découverts en Allemagne dans le Bade-Wurtemberg . 
 Une seule espèce est rattachée au genre : Batrachotomus kupferzellensis.
-Dans son étude de 2016 sur la classification des Archosauromorpha comparant 96 taxons séparés et plus de 600 caractéristiques osseuses, Martin Ezcurra place Youngosuchus comme un proche parent du loricatan Batrachotomus, situé loin de Garjainia[1].
+Dans son étude de 2016 sur la classification des Archosauromorpha comparant 96 taxons séparés et plus de 600 caractéristiques osseuses, Martin Ezcurra place Youngosuchus comme un proche parent du loricatan Batrachotomus, situé loin de Garjainia.
 </t>
         </is>
       </c>
